--- a/medicine/Pharmacie/4-Acétamidobenzènesulfonamide/4-Acétamidobenzènesulfonamide.xlsx
+++ b/medicine/Pharmacie/4-Acétamidobenzènesulfonamide/4-Acétamidobenzènesulfonamide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4-Ac%C3%A9tamidobenz%C3%A8nesulfonamide</t>
+          <t>4-Acétamidobenzènesulfonamide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le 4-acétamidobenzènesulfonamide ou acétylsulfanilamide est un composé organique de formule C8H10N2O3S. Il se constitue d'un sulfanilamide dont l'amine en position 4 (para) porte un groupe acétyle. C'est le précurseur direct du sulfanilamide et de ses dérivés les sulfamidés[5], qui font partie des premiers antibiotiques découverts.
+Le 4-acétamidobenzènesulfonamide ou acétylsulfanilamide est un composé organique de formule C8H10N2O3S. Il se constitue d'un sulfanilamide dont l'amine en position 4 (para) porte un groupe acétyle. C'est le précurseur direct du sulfanilamide et de ses dérivés les sulfamidés, qui font partie des premiers antibiotiques découverts.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4-Ac%C3%A9tamidobenz%C3%A8nesulfonamide</t>
+          <t>4-Acétamidobenzènesulfonamide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synthèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En présence d'une solution concentrée d'ammoniaque, le chlorure de 4-acétamidobenzènesulfonyle subit une amination. Cette réaction a pour produit final du 4-acétamidobenzènesulfonamide et de l'acide chlorhydrique :
             C
@@ -554,7 +568,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4-Ac%C3%A9tamidobenz%C3%A8nesulfonamide</t>
+          <t>4-Acétamidobenzènesulfonamide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -572,7 +586,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En plus de son utilisation dans la synthèse du sulfanilamide, il possède une activité anti-bactérienne.
 </t>
